--- a/목차.xlsx
+++ b/목차.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A7BD0527-AEB1-46DE-9467-6FC1A837B2AF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0DBBB0A6-C46C-461F-A01F-0B5C36F3B9A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{4A19F534-53F7-485E-8E3B-0E0AE26B459F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>INTRO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상세내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -124,10 +120,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>실행 결과 시현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>마무리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -156,14 +148,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>iot와의 연계, 실제 있는 매장관리 서비스…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>니즈를 가지고 있는 세가지 대상, 실제 니즈.., 매출..</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 후기 (개인별)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -188,10 +172,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>인터넷 들어가서 직접 보여줌 or 동영상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>페이징, 매뉴얼 보여주는 로직, 배정 로직…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -204,18 +184,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>그 언어를 쓴 이유, 강조하고 싶은 부분 있는지? Ex)비동기, 깃허브, wireFrame, exerd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class Diagram</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직 안만들었음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Persona</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -229,6 +197,180 @@
   </si>
   <si>
     <t>리팩토링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤치마킹 결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유스케이스 설계 - 업무 범위 설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유스케이스 설계 - 업무 구현 범위 상세 설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무별 상세 설계 - 워크플로우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계, 와이어프레임, UI 프로토타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 아키텍처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class diagram</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소프트웨어 아키텍처에 대한 리팩토링 및 단위 테스트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리팩토링의 장점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트의 특징, 차별성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페르소나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 언어를 쓴 이유, 강조하고 싶은 부분 있는지? 
+Ex)비동기, 깃허브, wireFrame, exerd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 분석했다고 말해도 되는지?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wireFrame은 확정되지 않은 설계를 만들어보는 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waterfall 기반 : 데이터 모델링의 위치가 분석과 설계단계로 구분되어 명확하게 정의.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계(DB 모델링)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4차 정규화까지 했다고 할 수 있는지?
+앞선 업무별 상세 설계를 보고 필요한 db와 그 관계를 정의함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(구)제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 배경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 개요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤치마킹 결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matrix의 차별성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX 시나리오 - 페르소나 기법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 기술서(?)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 상세 설계 - 전체 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 상세 설계 - 액터 별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 기술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요 SQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 결과 시연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상으로 서비스 시연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 데모 영상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>니즈를 가진 세가지 대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 사업화 가능성 - 현재 사업 현황,실제 있는 매장관리 서비스와의 연계 가능성, 매출 규모, iot 와의 연계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업화 전략</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 후기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A Session</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리팩토링의 장점</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +403,52 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +460,18 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -298,37 +494,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="계산" xfId="1" builtinId="22"/>
+    <cellStyle name="메모" xfId="3" builtinId="10"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,341 +881,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEF842E-9875-4D10-9B2E-D519C6228CA1}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="40.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.75" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="12" max="12" width="43.75" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1" t="s">
-        <v>43</v>
+      <c r="B26" s="4"/>
+      <c r="C26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B5:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/목차.xlsx
+++ b/목차.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0DBBB0A6-C46C-461F-A01F-0B5C36F3B9A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{960502ED-0876-4F9B-9F87-A13D5D4E399A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{4A19F534-53F7-485E-8E3B-0E0AE26B459F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>INTRO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,18 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>jdbc -&gt; mybatis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>servlet -&gt; spring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jUnit Framework</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>중요 SQL문 (3~4)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -168,10 +156,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">비포애프터 코드 캡처 + 설명(이유) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>페이징, 매뉴얼 보여주는 로직, 배정 로직…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,10 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>리팩토링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>배경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -237,14 +217,6 @@
   </si>
   <si>
     <t>class diagram</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">소프트웨어 아키텍처에 대한 리팩토링 및 단위 테스트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리팩토링의 장점</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -265,10 +237,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wireFrame은 확정되지 않은 설계를 만들어보는 것</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Waterfall 기반 : 데이터 모델링의 위치가 분석과 설계단계로 구분되어 명확하게 정의.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -277,100 +245,128 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4차 정규화까지 했다고 할 수 있는지?
+    <t>(구)제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 배경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 개요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤치마킹 결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matrix의 차별성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX 시나리오 - 페르소나 기법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 상세 설계 - 전체 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 상세 설계 - 액터 별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 기술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요 SQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 결과 시연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>니즈를 가진 세가지 대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 사업화 가능성 - 현재 사업 현황,실제 있는 매장관리 서비스와의 연계 가능성, 매출 규모, iot 와의 연계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업화 전략</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 후기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A Session</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무별 상세설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class diagram으로 주요 인터페이스를 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 아키텍처(mybatis)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jUnit Test API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상으로 서비스 시연 / 프로젝트 시연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4차? 정규화까지 했다고 할 수 있는지?
 앞선 업무별 상세 설계를 보고 필요한 db와 그 관계를 정의함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(구)제목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 배경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 개요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치마킹 결과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>matrix의 차별성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UX 시나리오 - 페르소나 기법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 기술서(?)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무 상세 설계 - 전체 범위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무 상세 설계 - 액터 별</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>피드백</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 기술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중요 SQL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실행 결과 시연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동영상으로 서비스 시연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 데모 영상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>니즈를 가진 세가지 대상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실제 사업화 가능성 - 현재 사업 현황,실제 있는 매장관리 서비스와의 연계 가능성, 매출 규모, iot 와의 연계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업화 전략</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 후기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q&amp;A Session</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리팩토링의 장점</t>
+    <t>DB 설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 기술서 - 업무별 상세설계서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 시연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 일정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 목표</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,6 +558,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEF842E-9875-4D10-9B2E-D519C6228CA1}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -897,7 +905,7 @@
     <col min="12" max="12" width="43.75" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -905,24 +913,24 @@
         <v>11</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -932,11 +940,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
@@ -944,427 +952,401 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="11" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="11" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C10:C11"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B24:B26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
